--- a/biology/Zoologie/Cyprinodontidae/Cyprinodontidae.xlsx
+++ b/biology/Zoologie/Cyprinodontidae/Cyprinodontidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyprinodontidae forment une famille de poissons d'eau douce appartenant à l'ordre des Cyprinodontiformes.
 </t>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À part les caractéristiques typiques des poissons osseux, les Cyprinodontidés mâles possèdent un organe copulateur appelé gonopode qui leur est particulier. Ce sont des poissons ovovivipares (les œufs sont incubés et éclosent dans le ventre de la femelle).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (30 juillet 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (30 juillet 2017) :
 genre Aphanius
 genre Cualac
 genre Cubanichthys
@@ -555,7 +571,7 @@
 genre Lebias
 genre Megupsilon
 genre Orestias
-Selon ITIS      (30 juillet 2017)[2] :
+Selon ITIS      (30 juillet 2017) :
 sous-famille Cubanichthyinae Parenti, 1981
 genre Cubanichthys Hubbs, 1926
 sous-famille Cyprinodontinae Gill, 1865 ; (Cyprinodontines)
